--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="154">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T09:46:51+00:00</t>
+    <t>2024-04-10T12:05:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -337,13 +337,32 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.priorityStatus</t>
+    <t>ZoonosisSurveillance.generalInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>General Information</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.generalInformation.id</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.generalInformation.extension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.generalInformation.modifierExtension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.generalInformation.priorityStatus</t>
   </si>
   <si>
     <t>Priority Status</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.identifier</t>
+    <t>ZoonosisSurveillance.generalInformation.identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {elementdefinition-identifier}
@@ -353,7 +372,7 @@
     <t>Event ID</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.observationDate</t>
+    <t>ZoonosisSurveillance.generalInformation.observationDate</t>
   </si>
   <si>
     <t xml:space="preserve">date
@@ -363,26 +382,26 @@
     <t>Observation Date</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.onsetDate</t>
+    <t>ZoonosisSurveillance.generalInformation.onsetDate</t>
   </si>
   <si>
     <t>Onset Date</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.farmerName</t>
+    <t>ZoonosisSurveillance.generalInformation.farmerName</t>
   </si>
   <si>
     <t>Name of Farmer</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.contact</t>
+    <t>ZoonosisSurveillance.generalInformation.contact</t>
   </si>
   <si>
     <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.url</t>
+    <t>ZoonosisSurveillance.generalInformation.url</t>
   </si>
   <si>
     <t xml:space="preserve">url
@@ -392,52 +411,87 @@
     <t>Public URL</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.comment</t>
+    <t>ZoonosisSurveillance.generalInformation.comment</t>
   </si>
   <si>
     <t>General Comment</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.country</t>
+    <t>ZoonosisSurveillance.location</t>
+  </si>
+  <si>
+    <t>Location Information</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.location.id</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.location.extension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.location.modifierExtension</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.location.country</t>
   </si>
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.locality</t>
+    <t>ZoonosisSurveillance.location.locality</t>
   </si>
   <si>
     <t>Locality</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.adminLevel1</t>
+    <t>ZoonosisSurveillance.location.adminLevel1</t>
   </si>
   <si>
     <t>Admin Level 1</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.adminLevel2</t>
+    <t>ZoonosisSurveillance.location.adminLevel2</t>
   </si>
   <si>
     <t>Admin Level 2</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.localitySource</t>
+    <t>ZoonosisSurveillance.location.localitySource</t>
   </si>
   <si>
     <t>Locality Source</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.localityQuality</t>
+    <t>ZoonosisSurveillance.location.localityQuality</t>
   </si>
   <si>
     <t>Locality Quality</t>
   </si>
   <si>
-    <t>ZoonosisSurveillance.eventCoordinates</t>
+    <t>ZoonosisSurveillance.location.eventCoordinates</t>
   </si>
   <si>
     <t>Event Coordinates</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.animalSurveillance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/AnimalSurveillanceLM
+</t>
+  </si>
+  <si>
+    <t>Logical Model for Animal Surveillance</t>
+  </si>
+  <si>
+    <t>ZoonosisSurveillance.laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/LaboratoryLM
+</t>
+  </si>
+  <si>
+    <t>Logical Model for Laboratory Information</t>
   </si>
 </sst>
 </file>
@@ -734,7 +788,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -743,8 +797,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.6875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.8828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="55.8828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -753,7 +807,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="38.0390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="58.75390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -774,7 +828,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.33203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="54.4921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1328,7 +1382,7 @@
         <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>71</v>
@@ -1340,13 +1394,13 @@
         <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1403,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>71</v>
@@ -1417,10 +1471,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1431,7 +1485,7 @@
         <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>71</v>
@@ -1443,13 +1497,13 @@
         <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1500,13 +1554,13 @@
         <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>71</v>
@@ -1515,19 +1569,19 @@
         <v>71</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1546,15 +1600,17 @@
         <v>71</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>71</v>
@@ -1591,19 +1647,19 @@
         <v>71</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>72</v>
@@ -1615,22 +1671,22 @@
         <v>71</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1643,22 +1699,26 @@
         <v>71</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="P9" t="s" s="2">
         <v>71</v>
       </c>
@@ -1706,7 +1766,7 @@
         <v>71</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>72</v>
@@ -1718,18 +1778,18 @@
         <v>71</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1740,7 +1800,7 @@
         <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>71</v>
@@ -1755,10 +1815,10 @@
         <v>81</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1809,13 +1869,13 @@
         <v>71</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>71</v>
@@ -1829,10 +1889,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1843,7 +1903,7 @@
         <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>71</v>
@@ -1855,13 +1915,13 @@
         <v>71</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1912,13 +1972,13 @@
         <v>71</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>71</v>
@@ -1932,10 +1992,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1946,7 +2006,7 @@
         <v>72</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>71</v>
@@ -1958,13 +2018,13 @@
         <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2015,13 +2075,13 @@
         <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>71</v>
@@ -2035,10 +2095,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2049,7 +2109,7 @@
         <v>72</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>71</v>
@@ -2061,13 +2121,13 @@
         <v>71</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2118,13 +2178,13 @@
         <v>71</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>71</v>
@@ -2138,10 +2198,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2152,7 +2212,7 @@
         <v>72</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>71</v>
@@ -2167,10 +2227,10 @@
         <v>81</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2221,13 +2281,13 @@
         <v>71</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>71</v>
@@ -2241,10 +2301,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2255,7 +2315,7 @@
         <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>71</v>
@@ -2267,13 +2327,13 @@
         <v>71</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2324,13 +2384,13 @@
         <v>71</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>71</v>
@@ -2344,10 +2404,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2358,7 +2418,7 @@
         <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>71</v>
@@ -2370,13 +2430,13 @@
         <v>71</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2427,13 +2487,13 @@
         <v>71</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>71</v>
@@ -2447,10 +2507,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2461,7 +2521,7 @@
         <v>72</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>71</v>
@@ -2476,10 +2536,10 @@
         <v>81</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2530,13 +2590,13 @@
         <v>71</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>71</v>
@@ -2550,10 +2610,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2564,7 +2624,7 @@
         <v>72</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>71</v>
@@ -2576,13 +2636,13 @@
         <v>71</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2633,19 +2693,19 @@
         <v>71</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>71</v>
@@ -2653,10 +2713,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2667,7 +2727,7 @@
         <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>71</v>
@@ -2682,10 +2742,10 @@
         <v>81</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2736,13 +2796,13 @@
         <v>71</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>71</v>
@@ -2751,19 +2811,19 @@
         <v>71</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -2782,15 +2842,17 @@
         <v>71</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>71</v>
@@ -2827,19 +2889,19 @@
         <v>71</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>72</v>
@@ -2851,9 +2913,1043 @@
         <v>71</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:10:05+00:00</t>
+    <t>2024-04-10T14:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:13:50+00:00</t>
+    <t>2024-04-11T10:33:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T10:33:02+00:00</t>
+    <t>2024-04-11T10:34:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T10:34:35+00:00</t>
+    <t>2024-04-11T13:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T13:02:26+00:00</t>
+    <t>2024-04-12T09:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T09:40:09+00:00</t>
+    <t>2024-04-12T11:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T11:15:39+00:00</t>
+    <t>2024-04-16T08:17:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T08:17:53+00:00</t>
+    <t>2024-04-16T08:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T08:28:58+00:00</t>
+    <t>2024-04-16T18:12:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T18:12:52+00:00</t>
+    <t>2024-04-17T08:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T08:50:12+00:00</t>
+    <t>2024-04-17T10:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/StructureDefinition/ZoonosisSurveillance</t>
+    <t>https://example.org/fhir/StructureDefinition/ZoonosisSurveillance</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T10:25:03+00:00</t>
+    <t>2024-04-17T11:58:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,7 +460,7 @@
     <t>Admin Level 1</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/regions-vs</t>
+    <t>https://example.org/fhir/ValueSet/regions-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance.location.adminLevel2</t>
@@ -469,7 +469,7 @@
     <t>Admin Level 2</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/districts-vs</t>
+    <t>https://example.org/fhir/ValueSet/districts-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance.location.localitySource</t>
@@ -478,7 +478,7 @@
     <t>Locality Source</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/locality-source-vs</t>
+    <t>https://example.org/fhir/ValueSet/locality-source-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance.location.localityQuality</t>
@@ -487,7 +487,7 @@
     <t>Locality Quality</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/locality-quality-vs</t>
+    <t>https://example.org/fhir/ValueSet/locality-quality-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance.location.eventCoordinates</t>
@@ -499,7 +499,7 @@
     <t>ZoonosisSurveillance.animalSurveillance</t>
   </si>
   <si>
-    <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/AnimalSurveillance
+    <t xml:space="preserve">https://example.org/fhir/StructureDefinition/AnimalSurveillance
 </t>
   </si>
   <si>
@@ -509,7 +509,7 @@
     <t>ZoonosisSurveillance.laboratory</t>
   </si>
   <si>
-    <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/Laboratory
+    <t xml:space="preserve">https://example.org/fhir/StructureDefinition/Laboratory
 </t>
   </si>
   <si>
@@ -829,7 +829,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="56.1484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.1171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -844,7 +844,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.5234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.4921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T11:58:12+00:00</t>
+    <t>2024-04-17T13:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:28:15+00:00</t>
+    <t>2024-04-17T13:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://example.org/fhir/StructureDefinition/ZoonosisSurveillance</t>
+    <t>https://dhis2.org/fhir/StructureDefinition/ZoonosisSurveillance</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:33:19+00:00</t>
+    <t>2024-04-22T10:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,7 +460,7 @@
     <t>Admin Level 1</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/regions-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/regions-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance.location.adminLevel2</t>
@@ -469,7 +469,7 @@
     <t>Admin Level 2</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/districts-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/districts-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance.location.localitySource</t>
@@ -478,7 +478,7 @@
     <t>Locality Source</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/locality-source-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/locality-source-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance.location.localityQuality</t>
@@ -487,7 +487,7 @@
     <t>Locality Quality</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/locality-quality-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/locality-quality-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillance.location.eventCoordinates</t>
@@ -499,7 +499,7 @@
     <t>ZoonosisSurveillance.animalSurveillance</t>
   </si>
   <si>
-    <t xml:space="preserve">https://example.org/fhir/StructureDefinition/AnimalSurveillance
+    <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/AnimalSurveillance
 </t>
   </si>
   <si>
@@ -509,7 +509,7 @@
     <t>ZoonosisSurveillance.laboratory</t>
   </si>
   <si>
-    <t xml:space="preserve">https://example.org/fhir/StructureDefinition/Laboratory
+    <t xml:space="preserve">https://dhis2.org/fhir/StructureDefinition/Laboratory
 </t>
   </si>
   <si>
@@ -829,7 +829,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.1171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="56.1484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -844,7 +844,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.4921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.5234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ZoonosisSurveillance.xlsx
+++ b/StructureDefinition-ZoonosisSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T10:30:53+00:00</t>
+    <t>2024-04-22T11:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
